--- a/pvalue_table.xlsx
+++ b/pvalue_table.xlsx
@@ -1,158 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flavi\Desktop\Flavio\Unief\Bachelor 3\Bachelorproject HI\Uitwerking-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61476EE-AE5C-4FFE-BE28-AAC8B7BE3CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>lnEnergy</t>
-  </si>
-  <si>
-    <t>lnER</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>id_in_panel</t>
-  </si>
-  <si>
-    <t>citycode</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>area_final</t>
-  </si>
-  <si>
-    <t>ind_final</t>
-  </si>
-  <si>
-    <t>Coalratio</t>
-  </si>
-  <si>
-    <t>Oilratio</t>
-  </si>
-  <si>
-    <t>Gasratio</t>
-  </si>
-  <si>
-    <t>lnEnergyeff</t>
-  </si>
-  <si>
-    <t>lnPcca</t>
-  </si>
-  <si>
-    <t>lnDa</t>
-  </si>
-  <si>
-    <t>lnSize</t>
-  </si>
-  <si>
-    <t>lnAge</t>
-  </si>
-  <si>
-    <t>Own</t>
-  </si>
-  <si>
-    <t>Export</t>
-  </si>
-  <si>
-    <t>lnOpen</t>
-  </si>
-  <si>
-    <t>Ind</t>
-  </si>
-  <si>
-    <t>Endowment</t>
-  </si>
-  <si>
-    <t>Rail</t>
-  </si>
-  <si>
-    <t>lnPcgdp</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>Lnexport</t>
-  </si>
-  <si>
-    <t>LnERSO2</t>
-  </si>
-  <si>
-    <t>LnERCOD</t>
-  </si>
-  <si>
-    <t>SO2removalrate</t>
-  </si>
-  <si>
-    <t>reductionper</t>
-  </si>
-  <si>
-    <t>codtarget</t>
-  </si>
-  <si>
-    <t>Lncoalcons</t>
-  </si>
-  <si>
-    <t>Lnpollutint2005</t>
-  </si>
-  <si>
-    <t>Lnenergyint2005</t>
-  </si>
-  <si>
-    <t>Lnpollutint2001</t>
-  </si>
-  <si>
-    <t>Lnenergyint2001</t>
-  </si>
-  <si>
-    <t>HighPollution</t>
-  </si>
-  <si>
-    <t>Largefirm</t>
-  </si>
-  <si>
-    <t>energy_intensive</t>
-  </si>
-  <si>
-    <t>Lnfirmenergypre05</t>
-  </si>
-  <si>
-    <t>TargetDummy</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,25 +59,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -252,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -286,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,32 +350,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lnEnergy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lnER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
       </c>
       <c r="B2">
         <v>0</v>
@@ -531,9 +387,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>id_in_panel</t>
+        </is>
       </c>
       <c r="B3">
         <v>0</v>
@@ -542,9 +400,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>citycode</t>
+        </is>
       </c>
       <c r="B4">
         <v>0</v>
@@ -553,9 +413,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
       </c>
       <c r="B5">
         <v>0</v>
@@ -564,9 +426,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
       <c r="B6">
         <v>0</v>
@@ -575,9 +439,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>area_final</t>
+        </is>
       </c>
       <c r="B7">
         <v>0</v>
@@ -586,17 +452,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lnER</t>
+        </is>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ind_final</t>
+        </is>
       </c>
       <c r="B9">
         <v>0</v>
@@ -605,17 +475,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lnEnergy</t>
+        </is>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Coalratio</t>
+        </is>
       </c>
       <c r="B11">
         <v>0</v>
@@ -624,9 +498,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Oilratio</t>
+        </is>
       </c>
       <c r="B12">
         <v>0</v>
@@ -635,20 +511,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gasratio</t>
+        </is>
       </c>
       <c r="B13">
-        <v>0.88100000000000001</v>
+        <v>0.881</v>
       </c>
       <c r="C13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>lnEnergyeff</t>
+        </is>
       </c>
       <c r="B14">
         <v>0</v>
@@ -657,9 +537,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>lnPcca</t>
+        </is>
       </c>
       <c r="B15">
         <v>0</v>
@@ -668,9 +550,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>lnDa</t>
+        </is>
       </c>
       <c r="B16">
         <v>0</v>
@@ -679,9 +563,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>lnSize</t>
+        </is>
       </c>
       <c r="B17">
         <v>0</v>
@@ -690,9 +576,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>lnAge</t>
+        </is>
       </c>
       <c r="B18">
         <v>0</v>
@@ -701,9 +589,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Own</t>
+        </is>
       </c>
       <c r="B19">
         <v>0</v>
@@ -712,9 +602,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Export</t>
+        </is>
       </c>
       <c r="B20">
         <v>0</v>
@@ -723,9 +615,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>lnOpen</t>
+        </is>
       </c>
       <c r="B21">
         <v>0</v>
@@ -734,9 +628,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ind</t>
+        </is>
       </c>
       <c r="B22">
         <v>0</v>
@@ -745,9 +641,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Endowment</t>
+        </is>
       </c>
       <c r="B23">
         <v>0</v>
@@ -756,9 +654,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rail</t>
+        </is>
       </c>
       <c r="B24">
         <v>0</v>
@@ -767,9 +667,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>lnPcgdp</t>
+        </is>
       </c>
       <c r="B25">
         <v>0</v>
@@ -778,9 +680,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Concentration</t>
+        </is>
       </c>
       <c r="B26">
         <v>0</v>
@@ -789,9 +693,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lnexport</t>
+        </is>
       </c>
       <c r="B27">
         <v>0</v>
@@ -800,9 +706,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>LnERSO2</t>
+        </is>
       </c>
       <c r="B28">
         <v>0</v>
@@ -811,9 +719,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LnERCOD</t>
+        </is>
       </c>
       <c r="B29">
         <v>0</v>
@@ -822,9 +732,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SO2removalrate</t>
+        </is>
       </c>
       <c r="B30">
         <v>0</v>
@@ -833,9 +745,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>reductionper</t>
+        </is>
       </c>
       <c r="B31">
         <v>0</v>
@@ -844,9 +758,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>codtarget</t>
+        </is>
       </c>
       <c r="B32">
         <v>0</v>
@@ -855,9 +771,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Lncoalcons</t>
+        </is>
       </c>
       <c r="B33">
         <v>0</v>
@@ -866,9 +784,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Lnpollutint2005</t>
+        </is>
       </c>
       <c r="B34">
         <v>0</v>
@@ -877,9 +797,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Lnenergyint2005</t>
+        </is>
       </c>
       <c r="B35">
         <v>0</v>
@@ -888,9 +810,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Lnpollutint2001</t>
+        </is>
       </c>
       <c r="B36">
         <v>0</v>
@@ -899,9 +823,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Lnenergyint2001</t>
+        </is>
       </c>
       <c r="B37">
         <v>0</v>
@@ -910,9 +836,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HighPollution</t>
+        </is>
       </c>
       <c r="B38">
         <v>0</v>
@@ -921,9 +849,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Largefirm</t>
+        </is>
       </c>
       <c r="B39">
         <v>0</v>
@@ -932,9 +862,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>energy_intensive</t>
+        </is>
       </c>
       <c r="B40">
         <v>0</v>
@@ -943,9 +875,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>40</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lnfirmenergypre05</t>
+        </is>
       </c>
       <c r="B41">
         <v>0</v>
@@ -954,12 +888,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>41</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TargetDummy</t>
+        </is>
       </c>
       <c r="B42">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="C42">
         <v>0</v>
